--- a/data/trans_camb/MCS12_SP_R3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R3-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,01</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-1,61</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 2,18</t>
+          <t>-9,41; 1,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 10,2</t>
+          <t>-3,99; 10,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 3,46</t>
+          <t>-5,99; 2,88</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-33,94%</t>
+          <t>-35,87%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,97%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-6,78%</t>
+          <t>-10,71%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-69,32; 22,85</t>
+          <t>-69,54; 21,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,91; 61,54</t>
+          <t>-21,29; 60,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-33,21; 24,82</t>
+          <t>-36,71; 19,81</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-2,13</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 3,48</t>
+          <t>-5,95; 3,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 4,62</t>
+          <t>-12,12; 1,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 3,01</t>
+          <t>-6,13; 1,79</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,74%</t>
+          <t>-11,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,99%</t>
+          <t>-18,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-4,38%</t>
+          <t>-12,47%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-39,79; 30,18</t>
+          <t>-41,64; 27,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,81; 23,35</t>
+          <t>-50,89; 9,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,84; 18,57</t>
+          <t>-34,14; 10,54</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>-3,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,78</t>
+          <t>-4,86</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,85</t>
+          <t>-4,1</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 1,96</t>
+          <t>-8,27; 1,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,09; -0,84</t>
+          <t>-9,1; -0,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,18; -0,75</t>
+          <t>-7,34; -0,96</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-13,32%</t>
+          <t>-15,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-19,2%</t>
+          <t>-19,51%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-16,67%</t>
+          <t>-17,75%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,04; 9,62</t>
+          <t>-34,6; 8,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,15; -3,93</t>
+          <t>-33,39; -3,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-28,88; -3,64</t>
+          <t>-29,87; -4,57</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-4,26</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-3,51</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 8,65</t>
+          <t>-11,57; 7,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 0,58</t>
+          <t>-11,56; -0,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 3,39</t>
+          <t>-12,82; 1,49</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>-3,99%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-13,8%</t>
+          <t>-17,42%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-1,26%</t>
+          <t>-14,71%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 59,48</t>
+          <t>-61,04; 45,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,41; 2,45</t>
+          <t>-33,94; -1,68</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 15,32</t>
+          <t>-51,53; 6,27</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>-1,43</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 4,83</t>
+          <t>-6,65; 4,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 4,26</t>
+          <t>-7,06; 3,94</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 2,62</t>
+          <t>-5,35; 2,22</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-2,41%</t>
+          <t>-3,93%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-4,15%</t>
+          <t>-5,0%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-3,67%</t>
+          <t>-4,92%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-21,6; 22,21</t>
+          <t>-22,38; 20,39</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 14,79</t>
+          <t>-18,95; 13,74</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 9,91</t>
+          <t>-17,49; 8,05</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-4,34</t>
+          <t>-8,77</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>10,57</t>
+          <t>6,23</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>13,61</t>
+          <t>23,68</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>8,73</t>
+          <t>14,3</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 6,82</t>
+          <t>-8,57; 5,55</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 0,51</t>
+          <t>-15,41; -2,16</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 5,86</t>
+          <t>-8,67; 3,61</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,16; 15,65</t>
+          <t>-0,54; 13,27</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,76; 10,79</t>
+          <t>-3,07; 10,96</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>5,45; 32,82</t>
+          <t>-1,27; 55,34</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,46; 10,26</t>
+          <t>-2,64; 7,13</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 5,03</t>
+          <t>-7,07; 2,66</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>3,16; 22,62</t>
+          <t>-2,59; 43,2</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>-6,47%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-16,1%</t>
+          <t>-32,49%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>-8,1%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>33,78%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>43,51%</t>
+          <t>77,11%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>-6,56%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>29,66%</t>
+          <t>49,32%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 28,1</t>
+          <t>-29,26; 23,81</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-31,85; 1,82</t>
+          <t>-49,13; -8,58</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 24,28</t>
+          <t>-27,18; 16,2</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>14,71; 54,59</t>
+          <t>-1,63; 48,72</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>2,14; 37,79</t>
+          <t>-8,73; 39,4</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>16,51; 112,3</t>
+          <t>-4,57; 197,67</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>7,5; 36,6</t>
+          <t>-8,62; 26,53</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 18,29</t>
+          <t>-22,1; 9,38</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>10,22; 78,05</t>
+          <t>-8,6; 161,05</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>6,13</t>
+          <t>14,45</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>11,53</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>4,92</t>
+          <t>10,83</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>4,78</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>8,74</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>1,66; 6,01</t>
+          <t>-2,66; 14,4</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 2,23</t>
+          <t>-7,29; 8,64</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 3,38</t>
+          <t>-2,64; 12,17</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,96; 8,39</t>
+          <t>6,95; 21,74</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 2,47</t>
+          <t>-1,23; 13,92</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,53; 10,97</t>
+          <t>4,41; 17,77</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,36</t>
+          <t>5,31; 16,41</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,66</t>
+          <t>-0,62; 10,63</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,9</t>
+          <t>3,29; 13,59</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>19,58%</t>
+          <t>19,6%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>17,8%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>45,34%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>21,86%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>36,18%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>36,18%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>29,2%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-8,52; 64,17</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-22,6; 37,95</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-8,68; 55,56</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>18,89; 80,01</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-4,0; 49,92</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>12,27; 67,48</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>16,54; 61,73</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-2,04; 40,62</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>9,45; 51,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>3,65</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>6,13</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>4,36</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>4,92</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>2,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>1,66; 6,01</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-1,55; 2,23</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-4,5; 2,24</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>3,96; 8,39</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 2,47</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 18,21</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>3,36; 6,36</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-1,29; 1,66</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 8,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>19,58%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-1,47%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>23,08%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>16,43%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>21,74%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>9,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>8,57; 33,9</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-7,85; 12,79</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-4,74; 18,81</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-23,83; 12,47</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>14,14; 32,89</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-6,84; 9,75</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>1,83; 41,03</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 69,55</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>14,25; 28,71</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-5,5; 7,57</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>2,22; 26,72</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-4,96; 37,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/MCS12_SP_R3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/MCS12_SP_R3-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 8,51</t>
+          <t>-0,49; 8,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 3,34</t>
+          <t>-4,85; 3,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 1,68</t>
+          <t>-8,99; 2,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 4,98</t>
+          <t>-5,61; 5,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,76; -0,88</t>
+          <t>-10,98; -1,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 10,55</t>
+          <t>-4,16; 10,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 5,28</t>
+          <t>-1,67; 5,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,8; -0,4</t>
+          <t>-6,57; 0,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 2,88</t>
+          <t>-5,84; 2,93</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 86,63</t>
+          <t>-3,49; 86,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-39,95; 33,55</t>
+          <t>-35,37; 36,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-69,54; 21,71</t>
+          <t>-67,28; 21,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,64; 31,33</t>
+          <t>-26,26; 32,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-50,12; -5,6</t>
+          <t>-52,34; -7,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,29; 60,74</t>
+          <t>-21,32; 65,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 40,55</t>
+          <t>-10,84; 39,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-39,96; -2,79</t>
+          <t>-39,2; 1,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-36,71; 19,81</t>
+          <t>-37,06; 21,03</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 8,69</t>
+          <t>1,29; 9,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 6,32</t>
+          <t>-1,59; 6,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 3,27</t>
+          <t>-6,21; 3,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 6,57</t>
+          <t>-2,8; 6,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 1,02</t>
+          <t>-8,82; 0,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,12; 1,89</t>
+          <t>-11,6; 1,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 6,49</t>
+          <t>0,15; 6,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 2,52</t>
+          <t>-3,46; 2,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 1,79</t>
+          <t>-6,78; 1,33</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,43; 75,32</t>
+          <t>7,74; 79,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 56,21</t>
+          <t>-11,17; 52,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,64; 27,98</t>
+          <t>-43,11; 32,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,47; 33,48</t>
+          <t>-11,94; 32,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,66; 5,1</t>
+          <t>-36,81; 2,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,89; 9,09</t>
+          <t>-48,84; 8,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 40,55</t>
+          <t>0,52; 41,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-20,22; 15,81</t>
+          <t>-18,57; 16,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-34,14; 10,54</t>
+          <t>-37,86; 8,21</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 6,08</t>
+          <t>-3,4; 6,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 0,89</t>
+          <t>-7,95; 0,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 1,32</t>
+          <t>-7,77; 1,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,44; 12,97</t>
+          <t>3,55; 13,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 1,99</t>
+          <t>-7,05; 2,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,1; -0,79</t>
+          <t>-9,37; -0,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,79; 8,52</t>
+          <t>1,63; 8,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 0,16</t>
+          <t>-6,4; 0,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,34; -0,96</t>
+          <t>-7,35; -0,94</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-12,91; 32,92</t>
+          <t>-14,13; 34,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,71; 4,53</t>
+          <t>-34,13; 2,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-34,6; 8,3</t>
+          <t>-33,92; 8,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,65; 57,56</t>
+          <t>13,02; 57,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,93; 9,03</t>
+          <t>-25,91; 10,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,39; -3,77</t>
+          <t>-33,67; -2,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,38; 40,37</t>
+          <t>6,02; 39,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-25,42; 0,86</t>
+          <t>-25,5; 0,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-29,87; -4,57</t>
+          <t>-29,44; -4,22</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 10,79</t>
+          <t>0,75; 10,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 11,18</t>
+          <t>0,49; 11,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 7,11</t>
+          <t>-12,01; 7,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 10,48</t>
+          <t>-1,6; 10,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 4,95</t>
+          <t>-6,63; 5,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,56; -0,52</t>
+          <t>-11,11; -0,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,86; 8,83</t>
+          <t>1,12; 8,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 6,33</t>
+          <t>-0,95; 6,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 1,49</t>
+          <t>-12,19; 1,14</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,73; 77,55</t>
+          <t>3,49; 74,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5,5; 80,23</t>
+          <t>2,42; 77,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-61,04; 45,03</t>
+          <t>-59,89; 46,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 37,74</t>
+          <t>-4,55; 38,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 18,34</t>
+          <t>-19,43; 17,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-33,94; -1,68</t>
+          <t>-32,59; -0,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,72; 40,57</t>
+          <t>4,71; 40,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 29,8</t>
+          <t>-3,9; 28,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-51,53; 6,27</t>
+          <t>-51,47; 4,82</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 7,41</t>
+          <t>-4,75; 7,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 2,24</t>
+          <t>-9,33; 2,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 4,39</t>
+          <t>-6,28; 4,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,6; 14,12</t>
+          <t>0,28; 13,77</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 7,13</t>
+          <t>-5,92; 7,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 3,94</t>
+          <t>-7,23; 3,67</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 8,56</t>
+          <t>-0,02; 8,64</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,84; 3,04</t>
+          <t>-5,85; 3,2</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 2,22</t>
+          <t>-5,34; 2,27</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-15,3; 33,77</t>
+          <t>-16,97; 34,64</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-33,36; 10,24</t>
+          <t>-32,78; 10,34</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 20,39</t>
+          <t>-21,99; 19,97</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1,44; 48,61</t>
+          <t>0,27; 45,95</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-14,95; 24,83</t>
+          <t>-16,69; 24,1</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 13,74</t>
+          <t>-19,85; 12,87</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 32,38</t>
+          <t>-0,57; 31,87</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-18,9; 10,94</t>
+          <t>-18,73; 11,71</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 8,05</t>
+          <t>-16,96; 8,54</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 5,55</t>
+          <t>-9,09; 5,97</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-15,41; -2,16</t>
+          <t>-15,03; -2,04</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 3,61</t>
+          <t>-8,99; 3,58</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 13,27</t>
+          <t>-0,21; 12,64</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 10,96</t>
+          <t>-2,41; 11,29</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 55,34</t>
+          <t>-1,93; 49,83</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 7,13</t>
+          <t>-2,27; 7,51</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 2,66</t>
+          <t>-7,1; 3,27</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 43,2</t>
+          <t>-2,21; 39,48</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-29,26; 23,81</t>
+          <t>-29,62; 25,5</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-49,13; -8,58</t>
+          <t>-49,98; -8,49</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-27,18; 16,2</t>
+          <t>-28,04; 15,91</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 48,72</t>
+          <t>-0,63; 45,84</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 39,4</t>
+          <t>-7,11; 40,9</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 197,67</t>
+          <t>-6,15; 194,86</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 26,53</t>
+          <t>-7,48; 28,53</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-22,1; 9,38</t>
+          <t>-22,26; 12,66</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 161,05</t>
+          <t>-7,31; 148,75</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 14,4</t>
+          <t>-3,41; 14,35</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 8,64</t>
+          <t>-7,26; 8,9</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 12,17</t>
+          <t>-2,89; 11,55</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>6,95; 21,74</t>
+          <t>6,73; 21,99</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 13,92</t>
+          <t>0,1; 15,39</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,41; 17,77</t>
+          <t>4,94; 17,92</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>5,31; 16,41</t>
+          <t>5,32; 16,61</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 10,63</t>
+          <t>-1,24; 10,28</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,29; 13,59</t>
+          <t>4,08; 13,76</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 64,17</t>
+          <t>-11,96; 64,73</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-22,6; 37,95</t>
+          <t>-23,58; 38,33</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 55,56</t>
+          <t>-9,13; 50,95</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>18,89; 80,01</t>
+          <t>18,97; 80,13</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 49,92</t>
+          <t>0,4; 56,18</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>12,27; 67,48</t>
+          <t>13,85; 66,28</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>16,54; 61,73</t>
+          <t>16,12; 62,67</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 40,62</t>
+          <t>-3,67; 38,3</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>9,45; 51,53</t>
+          <t>12,11; 52,33</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>1,66; 6,01</t>
+          <t>1,43; 5,63</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 2,23</t>
+          <t>-1,77; 2,2</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 2,24</t>
+          <t>-4,36; 2,07</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>3,96; 8,39</t>
+          <t>3,88; 8,51</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 2,47</t>
+          <t>-1,99; 2,46</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 18,21</t>
+          <t>-0,6; 17,54</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,36</t>
+          <t>3,34; 6,43</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 1,66</t>
+          <t>-1,22; 1,66</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 8,28</t>
+          <t>-1,04; 9,47</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>8,57; 33,9</t>
+          <t>7,09; 31,83</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 12,79</t>
+          <t>-8,89; 12,62</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 12,47</t>
+          <t>-23,33; 11,61</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>14,14; 32,89</t>
+          <t>13,78; 33,52</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 9,75</t>
+          <t>-7,27; 9,84</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 69,55</t>
+          <t>-1,74; 71,67</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>14,25; 28,71</t>
+          <t>14,31; 29,76</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 7,57</t>
+          <t>-5,15; 7,66</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 37,1</t>
+          <t>-4,77; 42,23</t>
         </is>
       </c>
     </row>
